--- a/data/trans_orig/IBSE_100-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Habitat-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>72.99236620606571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74.76017918069289</v>
+        <v>74.7601791806929</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>74.76491843935227</v>
+        <v>74.87579019875686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>71.81191902260126</v>
+        <v>71.66664044698372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73.68542315990641</v>
+        <v>73.76849647051073</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78.21401867438233</v>
+        <v>78.22145366847734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>74.1683850382675</v>
+        <v>74.23116226860041</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75.82178361459681</v>
+        <v>75.91253095428868</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>77.64295680053981</v>
+        <v>77.40910340035515</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>72.55007999376707</v>
+        <v>72.66757525058421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75.39219245303111</v>
+        <v>75.36372372507337</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>79.98785927264279</v>
+        <v>79.90004659283434</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>74.78346625467695</v>
+        <v>74.81471400484244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77.05583811317985</v>
+        <v>77.01802342975455</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>79.78100376146193</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>76.76612961273906</v>
+        <v>76.76612961273905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78.25831684811533</v>
+        <v>78.25831684811534</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>78.40817912686803</v>
+        <v>78.42088700413454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>75.52691411685207</v>
+        <v>75.58154178257426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>77.34067666066603</v>
+        <v>77.37965943932257</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>81.00241434519981</v>
+        <v>80.91383928041506</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>77.90456684403779</v>
+        <v>78.03692085078151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79.06970314203299</v>
+        <v>79.16279728058056</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>76.72413362397104</v>
+        <v>76.72413362397103</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>72.8273131114817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74.65938782836953</v>
+        <v>74.65938782836952</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>75.40723826126332</v>
+        <v>75.57704540774621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>71.77382488993294</v>
+        <v>71.72779170732488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73.87549063862217</v>
+        <v>73.71590558354896</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>77.86668181755653</v>
+        <v>77.94900858507823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>73.91010169830948</v>
+        <v>73.87178774818688</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75.48941810811209</v>
+        <v>75.35262545637282</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>77.29240554290247</v>
+        <v>77.34859505492462</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>73.42641592506097</v>
+        <v>73.40278460411598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75.47549982475108</v>
+        <v>75.48963261700409</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.62059031951068</v>
+        <v>78.63733324905557</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>74.5412085085795</v>
+        <v>74.51342436607966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76.3625159007171</v>
+        <v>76.38942344110635</v>
       </c>
     </row>
     <row r="19">
